--- a/fixme/move_labels.xlsx
+++ b/fixme/move_labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afern\Documents\UMD\LHCb\cern\LV_cavern_mapping\fixme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{890AB83D-8D6D-4112-B55F-246E61EE6A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AD211D4C-E7F8-45D8-976C-A2E81CD18CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -2310,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,7 +2324,7 @@
     <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="36.42578125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="75.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="75.7109375" style="4" customWidth="1"/>
   </cols>
